--- a/TextToSpeech/Resources/InputSamples/ExcelSampleSaveRot13.xlsx
+++ b/TextToSpeech/Resources/InputSamples/ExcelSampleSaveRot13.xlsx
@@ -14,40 +14,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>xlofnm0</t>
+    <t>pbyhza0</t>
   </si>
   <si>
-    <t>xlofnm1</t>
+    <t>pbyhza1</t>
   </si>
   <si>
-    <t>xlofnm2</t>
+    <t>pbyhza2</t>
   </si>
   <si>
-    <t>ild1</t>
+    <t>ebj1</t>
   </si>
   <si>
-    <t>ild1 xlo1</t>
+    <t>ebj1 pby1</t>
   </si>
   <si>
-    <t>ild1 xlo2</t>
+    <t>ebj1 pby2</t>
   </si>
   <si>
-    <t>ild2</t>
+    <t>ebj2</t>
   </si>
   <si>
-    <t>ild2 xlo1</t>
+    <t>ebj2 pby1</t>
   </si>
   <si>
-    <t>ild2 xlo2</t>
+    <t>ebj2 pby2</t>
   </si>
   <si>
-    <t>ild3</t>
+    <t>ebj3</t>
   </si>
   <si>
-    <t>ild3 xlo1</t>
+    <t>ebj3 pby1</t>
   </si>
   <si>
-    <t>ild3 xlo2</t>
+    <t>ebj3 pby2</t>
   </si>
 </sst>
 </file>

--- a/TextToSpeech/Resources/InputSamples/ExcelSampleSaveRot13.xlsx
+++ b/TextToSpeech/Resources/InputSamples/ExcelSampleSaveRot13.xlsx
@@ -12,42 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>pbyhza0</t>
+    <t>Yberz vcfhz qbybe fvg nzrg</t>
   </si>
   <si>
-    <t>pbyhza1</t>
+    <t xml:space="preserve"> pbafrpgrghe nqvcvfpvat ryvg</t>
   </si>
   <si>
-    <t>pbyhza2</t>
+    <t xml:space="preserve"> frq qb rvhfzbq grzcbe vapvqvqhag hg ynober rg qbyber zntan nyvdhn. Hg ravz nq zvavz iravnz</t>
   </si>
   <si>
-    <t>ebj1</t>
+    <t xml:space="preserve"> dhvf abfgehq rkrepvgngvba hyynzpb ynobevf avfv hg nyvdhvc rk rn pbzzbqb pbafrdhng. Qhvf nhgr veher qbybe va erceruraqrevg va ibyhcgngr iryvg rffr pvyyhz qbyber rh shtvng ahyyn cnevnghe. Rkprcgrhe fvag bppnrpng phcvqngng aba cebvqrag</t>
   </si>
   <si>
-    <t>ebj1 pby1</t>
-  </si>
-  <si>
-    <t>ebj1 pby2</t>
-  </si>
-  <si>
-    <t>ebj2</t>
-  </si>
-  <si>
-    <t>ebj2 pby1</t>
-  </si>
-  <si>
-    <t>ebj2 pby2</t>
-  </si>
-  <si>
-    <t>ebj3</t>
-  </si>
-  <si>
-    <t>ebj3 pby1</t>
-  </si>
-  <si>
-    <t>ebj3 pby2</t>
+    <t xml:space="preserve"> fhag va phycn dhv bssvpvn qrfrehag zbyyvg navz vq rfg ynobehz.</t>
   </si>
 </sst>
 </file>
@@ -92,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108,38 +87,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TextToSpeech/Resources/InputSamples/ExcelSampleSaveRot13.xlsx
+++ b/TextToSpeech/Resources/InputSamples/ExcelSampleSaveRot13.xlsx
@@ -12,21 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Yberz vcfhz qbybe fvg nzrg</t>
+    <t>pbyhza0</t>
   </si>
   <si>
-    <t xml:space="preserve"> pbafrpgrghe nqvcvfpvat ryvg</t>
+    <t>pbyhza1</t>
   </si>
   <si>
-    <t xml:space="preserve"> frq qb rvhfzbq grzcbe vapvqvqhag hg ynober rg qbyber zntan nyvdhn. Hg ravz nq zvavz iravnz</t>
+    <t>pbyhza2</t>
   </si>
   <si>
-    <t xml:space="preserve"> dhvf abfgehq rkrepvgngvba hyynzpb ynobevf avfv hg nyvdhvc rk rn pbzzbqb pbafrdhng. Qhvf nhgr veher qbybe va erceruraqrevg va ibyhcgngr iryvg rffr pvyyhz qbyber rh shtvng ahyyn cnevnghe. Rkprcgrhe fvag bppnrpng phcvqngng aba cebvqrag</t>
+    <t>ebj1</t>
   </si>
   <si>
-    <t xml:space="preserve"> fhag va phycn dhv bssvpvn qrfrehag zbyyvg navz vq rfg ynobehz.</t>
+    <t>ebj1 pby1</t>
+  </si>
+  <si>
+    <t>ebj1 pby2</t>
+  </si>
+  <si>
+    <t>ebj2</t>
+  </si>
+  <si>
+    <t>ebj2 pby1</t>
+  </si>
+  <si>
+    <t>ebj2 pby2</t>
+  </si>
+  <si>
+    <t>ebj3</t>
+  </si>
+  <si>
+    <t>ebj3 pby1</t>
+  </si>
+  <si>
+    <t>ebj3 pby2</t>
   </si>
 </sst>
 </file>
@@ -71,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,11 +108,38 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
